--- a/outputs/Serious_rate_ranges_F.xlsx
+++ b/outputs/Serious_rate_ranges_F.xlsx
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.201663584236506</v>
+        <v>26.201897830247344</v>
       </c>
       <c r="C2" t="n">
-        <v>44.100559657410486</v>
+        <v>44.097647639152214</v>
       </c>
       <c r="D2" t="n">
-        <v>33.75928332526736</v>
+        <v>33.773892190392964</v>
       </c>
       <c r="E2" t="n">
-        <v>42.9087199203151</v>
+        <v>42.91673348087305</v>
       </c>
       <c r="F2" t="n">
-        <v>36.95552891547769</v>
+        <v>36.960312453399744</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>11.980105708657982</v>
+        <v>12.002559676439693</v>
       </c>
       <c r="C3" t="n">
-        <v>20.12318981168791</v>
+        <v>20.119667247470893</v>
       </c>
       <c r="D3" t="n">
-        <v>14.610533272771992</v>
+        <v>14.651510495998007</v>
       </c>
       <c r="E3" t="n">
-        <v>15.210954423592511</v>
+        <v>15.22966670151343</v>
       </c>
       <c r="F3" t="n">
-        <v>14.999010060110683</v>
+        <v>15.01948433495183</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.818569256635113</v>
+        <v>15.868009090918378</v>
       </c>
       <c r="C4" t="n">
-        <v>23.168014397108333</v>
+        <v>23.216681043440886</v>
       </c>
       <c r="D4" t="n">
-        <v>45.41590554029854</v>
+        <v>45.30639904440502</v>
       </c>
       <c r="E4" t="n">
-        <v>31.871026515110323</v>
+        <v>31.70595529440078</v>
       </c>
       <c r="F4" t="n">
-        <v>21.66436050519776</v>
+        <v>21.677932098068055</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>97.78020665751686</v>
+        <v>99.083508093041</v>
       </c>
       <c r="C5" t="n">
-        <v>144.09840293677928</v>
+        <v>145.3263614588301</v>
       </c>
       <c r="D5" t="n">
-        <v>65.77973054453432</v>
+        <v>66.47633365731403</v>
       </c>
       <c r="E5" t="n">
-        <v>40.027792399965136</v>
+        <v>40.29583958945298</v>
       </c>
       <c r="F5" t="n">
-        <v>70.9690819865465</v>
+        <v>71.62418256839817</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>65.00692231226166</v>
+        <v>65.03889828373327</v>
       </c>
       <c r="C6" t="n">
-        <v>154.95726299033387</v>
+        <v>154.13464308698013</v>
       </c>
       <c r="D6" t="n">
-        <v>97.90898580175111</v>
+        <v>97.53641468396088</v>
       </c>
       <c r="E6" t="n">
-        <v>113.145390395719</v>
+        <v>113.12768734415297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.84190722785803</v>
+        <v>114.55695946352256</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>131.710113281215</v>
+        <v>131.61512994213473</v>
       </c>
       <c r="C7" t="n">
-        <v>38.98127051805021</v>
+        <v>38.920678778432986</v>
       </c>
       <c r="D7" t="n">
-        <v>21.890848462212244</v>
+        <v>21.94044973526792</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7438895500655</v>
+        <v>11.797753103370335</v>
       </c>
       <c r="F7" t="n">
-        <v>19.21061547650589</v>
+        <v>19.24451458164452</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.197889953838548</v>
+        <v>26.203651047110895</v>
       </c>
       <c r="C2" t="n">
-        <v>44.11205556167532</v>
+        <v>44.09513121472704</v>
       </c>
       <c r="D2" t="n">
-        <v>33.771591172799596</v>
+        <v>33.77744732897752</v>
       </c>
       <c r="E2" t="n">
-        <v>42.90737241340392</v>
+        <v>42.91808326407869</v>
       </c>
       <c r="F2" t="n">
-        <v>36.95270722815387</v>
+        <v>36.961156153977086</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>11.982608953212058</v>
+        <v>12.004544398979924</v>
       </c>
       <c r="C3" t="n">
-        <v>20.051950033592988</v>
+        <v>20.095740223640654</v>
       </c>
       <c r="D3" t="n">
-        <v>14.561134606633667</v>
+        <v>14.596675749506092</v>
       </c>
       <c r="E3" t="n">
-        <v>15.183606386045916</v>
+        <v>15.233097070680671</v>
       </c>
       <c r="F3" t="n">
-        <v>14.982276355638286</v>
+        <v>14.99485836224605</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.696121556876363</v>
+        <v>15.777657990036165</v>
       </c>
       <c r="C4" t="n">
-        <v>23.007551226710156</v>
+        <v>22.991099870627572</v>
       </c>
       <c r="D4" t="n">
-        <v>45.18506390455055</v>
+        <v>45.11448641285402</v>
       </c>
       <c r="E4" t="n">
-        <v>31.736051644817657</v>
+        <v>31.45354750670217</v>
       </c>
       <c r="F4" t="n">
-        <v>21.646912999176223</v>
+        <v>21.59971065801669</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>97.21762362284193</v>
+        <v>98.89015874978806</v>
       </c>
       <c r="C5" t="n">
-        <v>143.6650233050002</v>
+        <v>144.17426823274513</v>
       </c>
       <c r="D5" t="n">
-        <v>65.30640452415263</v>
+        <v>66.11258976246523</v>
       </c>
       <c r="E5" t="n">
-        <v>39.86778563970599</v>
+        <v>40.19885324333643</v>
       </c>
       <c r="F5" t="n">
-        <v>70.87685493881108</v>
+        <v>71.46238405535571</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>64.80374816839348</v>
+        <v>64.90648594412653</v>
       </c>
       <c r="C6" t="n">
-        <v>155.00886454633948</v>
+        <v>153.5923131908971</v>
       </c>
       <c r="D6" t="n">
-        <v>97.51855899016033</v>
+        <v>97.087536155692</v>
       </c>
       <c r="E6" t="n">
-        <v>112.78477173612637</v>
+        <v>113.35380948484719</v>
       </c>
       <c r="F6" t="n">
-        <v>114.713106601873</v>
+        <v>114.55029335816464</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>130.32659780093314</v>
+        <v>129.86546704918203</v>
       </c>
       <c r="C7" t="n">
-        <v>38.79320848459054</v>
+        <v>38.75852367074772</v>
       </c>
       <c r="D7" t="n">
-        <v>21.699019871359702</v>
+        <v>21.758531299156594</v>
       </c>
       <c r="E7" t="n">
-        <v>11.751966791495162</v>
+        <v>11.705285845730096</v>
       </c>
       <c r="F7" t="n">
-        <v>19.198538603912397</v>
+        <v>19.189145738801013</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>25.721606735184697</v>
+        <v>25.709935673392565</v>
       </c>
       <c r="C2" t="n">
-        <v>43.40947898942543</v>
+        <v>43.42665525863066</v>
       </c>
       <c r="D2" t="n">
-        <v>33.118903770276546</v>
+        <v>33.10531304391427</v>
       </c>
       <c r="E2" t="n">
-        <v>42.357703900016716</v>
+        <v>42.35012882559955</v>
       </c>
       <c r="F2" t="n">
-        <v>36.674459550607104</v>
+        <v>36.67694213810964</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>10.851393471049251</v>
+        <v>10.892643941472102</v>
       </c>
       <c r="C3" t="n">
-        <v>18.201082570414187</v>
+        <v>18.257089733465765</v>
       </c>
       <c r="D3" t="n">
-        <v>13.209775379273468</v>
+        <v>13.170671723187228</v>
       </c>
       <c r="E3" t="n">
-        <v>13.87995605404598</v>
+        <v>13.809595368847727</v>
       </c>
       <c r="F3" t="n">
-        <v>13.865400364934349</v>
+        <v>13.847776484002143</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>13.408711174887316</v>
+        <v>13.330590874207862</v>
       </c>
       <c r="C4" t="n">
-        <v>19.049920615208332</v>
+        <v>19.22408030314087</v>
       </c>
       <c r="D4" t="n">
-        <v>37.51167241295285</v>
+        <v>36.82674874565589</v>
       </c>
       <c r="E4" t="n">
-        <v>25.546079987311494</v>
+        <v>25.44655899540611</v>
       </c>
       <c r="F4" t="n">
-        <v>18.71048107806408</v>
+        <v>18.541492072420155</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>82.39724560643549</v>
+        <v>83.02685227071814</v>
       </c>
       <c r="C5" t="n">
-        <v>124.28608017253795</v>
+        <v>126.20893371806831</v>
       </c>
       <c r="D5" t="n">
-        <v>54.220179989793564</v>
+        <v>55.17331589839441</v>
       </c>
       <c r="E5" t="n">
-        <v>34.758689969965125</v>
+        <v>34.76425896190757</v>
       </c>
       <c r="F5" t="n">
-        <v>62.564831035335104</v>
+        <v>63.49052356200926</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>56.241818674271386</v>
+        <v>56.59282930624965</v>
       </c>
       <c r="C6" t="n">
-        <v>141.09314527619307</v>
+        <v>139.9562090603773</v>
       </c>
       <c r="D6" t="n">
-        <v>85.26825615734988</v>
+        <v>84.01302684576763</v>
       </c>
       <c r="E6" t="n">
-        <v>103.13576060328228</v>
+        <v>102.21658554840252</v>
       </c>
       <c r="F6" t="n">
-        <v>105.68920969803301</v>
+        <v>105.10894612225107</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>103.7432335075625</v>
+        <v>101.65729940170395</v>
       </c>
       <c r="C7" t="n">
-        <v>33.43613525178462</v>
+        <v>33.46542095668864</v>
       </c>
       <c r="D7" t="n">
-        <v>18.175002366453576</v>
+        <v>18.30171569865224</v>
       </c>
       <c r="E7" t="n">
-        <v>10.076225328114509</v>
+        <v>10.250583513888676</v>
       </c>
       <c r="F7" t="n">
-        <v>16.942629754650625</v>
+        <v>16.91776456241914</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.684141404125363</v>
+        <v>26.667733258457954</v>
       </c>
       <c r="C2" t="n">
-        <v>44.731587930022606</v>
+        <v>44.793687443866126</v>
       </c>
       <c r="D2" t="n">
-        <v>34.376484734285064</v>
+        <v>34.42001502367706</v>
       </c>
       <c r="E2" t="n">
-        <v>43.46558923090388</v>
+        <v>43.475138154835676</v>
       </c>
       <c r="F2" t="n">
-        <v>37.25309310202475</v>
+        <v>37.278138307073014</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>13.181574193350842</v>
+        <v>13.264975642870727</v>
       </c>
       <c r="C3" t="n">
-        <v>22.204432938937973</v>
+        <v>21.934748108297782</v>
       </c>
       <c r="D3" t="n">
-        <v>16.195160402038027</v>
+        <v>16.258462434930756</v>
       </c>
       <c r="E3" t="n">
-        <v>16.630740273174055</v>
+        <v>16.670557781337966</v>
       </c>
       <c r="F3" t="n">
-        <v>16.20704075437403</v>
+        <v>16.219172112449225</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>18.388102142918875</v>
+        <v>18.53560348660095</v>
       </c>
       <c r="C4" t="n">
-        <v>27.597758078791394</v>
+        <v>27.81820433600389</v>
       </c>
       <c r="D4" t="n">
-        <v>54.424893219668014</v>
+        <v>54.90881413332698</v>
       </c>
       <c r="E4" t="n">
-        <v>39.0597811140767</v>
+        <v>38.93596310987205</v>
       </c>
       <c r="F4" t="n">
-        <v>24.910607620602033</v>
+        <v>25.090084210510856</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>114.89897523962088</v>
+        <v>116.83332323799779</v>
       </c>
       <c r="C5" t="n">
-        <v>164.40324579603524</v>
+        <v>166.06156454041826</v>
       </c>
       <c r="D5" t="n">
-        <v>78.14969538032575</v>
+        <v>78.53694431664091</v>
       </c>
       <c r="E5" t="n">
-        <v>45.785954919667084</v>
+        <v>46.32900349275805</v>
       </c>
       <c r="F5" t="n">
-        <v>80.06775208182276</v>
+        <v>80.84270757670386</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>74.83750521948748</v>
+        <v>74.14256610026762</v>
       </c>
       <c r="C6" t="n">
-        <v>169.26941524701934</v>
+        <v>169.29337764531357</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5146415555869</v>
+        <v>112.79019977011555</v>
       </c>
       <c r="E6" t="n">
-        <v>123.93506064836507</v>
+        <v>123.9073377876501</v>
       </c>
       <c r="F6" t="n">
-        <v>124.29722040434982</v>
+        <v>124.18731413926388</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>165.61608503808662</v>
+        <v>164.39251141532526</v>
       </c>
       <c r="C7" t="n">
-        <v>45.023674491812656</v>
+        <v>44.97194462690914</v>
       </c>
       <c r="D7" t="n">
-        <v>26.373411854306983</v>
+        <v>26.020973295185705</v>
       </c>
       <c r="E7" t="n">
-        <v>13.383183015506093</v>
+        <v>13.503492352353987</v>
       </c>
       <c r="F7" t="n">
-        <v>21.47856158232347</v>
+        <v>21.591270832698203</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Serious_rate_ranges_F.xlsx
+++ b/outputs/Serious_rate_ranges_F.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.201897830247344</v>
+        <v>26.202543800299</v>
       </c>
       <c r="C2" t="n">
-        <v>44.097647639152214</v>
+        <v>44.09650293919952</v>
       </c>
       <c r="D2" t="n">
-        <v>33.773892190392964</v>
+        <v>33.75668622226373</v>
       </c>
       <c r="E2" t="n">
-        <v>42.91673348087305</v>
+        <v>42.93465177040636</v>
       </c>
       <c r="F2" t="n">
-        <v>36.960312453399744</v>
+        <v>36.96310806496159</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>12.002559676439693</v>
+        <v>11.979800505986175</v>
       </c>
       <c r="C3" t="n">
-        <v>20.119667247470893</v>
+        <v>20.08626932259857</v>
       </c>
       <c r="D3" t="n">
-        <v>14.651510495998007</v>
+        <v>14.616786362421816</v>
       </c>
       <c r="E3" t="n">
-        <v>15.22966670151343</v>
+        <v>15.223735748636328</v>
       </c>
       <c r="F3" t="n">
-        <v>15.01948433495183</v>
+        <v>14.998258034415239</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.868009090918378</v>
+        <v>15.856086415537916</v>
       </c>
       <c r="C4" t="n">
-        <v>23.216681043440886</v>
+        <v>23.05559686613122</v>
       </c>
       <c r="D4" t="n">
-        <v>45.30639904440502</v>
+        <v>45.0463723682924</v>
       </c>
       <c r="E4" t="n">
-        <v>31.70595529440078</v>
+        <v>31.591169667806824</v>
       </c>
       <c r="F4" t="n">
-        <v>21.677932098068055</v>
+        <v>21.603393504324313</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>99.083508093041</v>
+        <v>98.65683464269108</v>
       </c>
       <c r="C5" t="n">
-        <v>145.3263614588301</v>
+        <v>145.429751456658</v>
       </c>
       <c r="D5" t="n">
-        <v>66.47633365731403</v>
+        <v>66.70418367992117</v>
       </c>
       <c r="E5" t="n">
-        <v>40.29583958945298</v>
+        <v>40.176610920065656</v>
       </c>
       <c r="F5" t="n">
-        <v>71.62418256839817</v>
+        <v>71.55295026329189</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>65.03889828373327</v>
+        <v>65.12139240093677</v>
       </c>
       <c r="C6" t="n">
-        <v>154.13464308698013</v>
+        <v>154.9654757533907</v>
       </c>
       <c r="D6" t="n">
-        <v>97.53641468396088</v>
+        <v>97.60917776436251</v>
       </c>
       <c r="E6" t="n">
-        <v>113.12768734415297</v>
+        <v>113.26054009644454</v>
       </c>
       <c r="F6" t="n">
-        <v>114.55695946352256</v>
+        <v>114.87668805639032</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>131.61512994213473</v>
+        <v>131.30229311345965</v>
       </c>
       <c r="C7" t="n">
-        <v>38.920678778432986</v>
+        <v>39.14559352429843</v>
       </c>
       <c r="D7" t="n">
-        <v>21.94044973526792</v>
+        <v>22.080318155527102</v>
       </c>
       <c r="E7" t="n">
-        <v>11.797753103370335</v>
+        <v>11.761666513867201</v>
       </c>
       <c r="F7" t="n">
-        <v>19.24451458164452</v>
+        <v>19.276966978164797</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.203651047110895</v>
+        <v>26.194920094252602</v>
       </c>
       <c r="C2" t="n">
-        <v>44.09513121472704</v>
+        <v>44.091468864582026</v>
       </c>
       <c r="D2" t="n">
-        <v>33.77744732897752</v>
+        <v>33.753736957622</v>
       </c>
       <c r="E2" t="n">
-        <v>42.91808326407869</v>
+        <v>42.92540443460415</v>
       </c>
       <c r="F2" t="n">
-        <v>36.961156153977086</v>
+        <v>36.95874826403663</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>12.004544398979924</v>
+        <v>11.979968662931022</v>
       </c>
       <c r="C3" t="n">
-        <v>20.095740223640654</v>
+        <v>20.035118004598893</v>
       </c>
       <c r="D3" t="n">
-        <v>14.596675749506092</v>
+        <v>14.593963331501623</v>
       </c>
       <c r="E3" t="n">
-        <v>15.233097070680671</v>
+        <v>15.189440058753455</v>
       </c>
       <c r="F3" t="n">
-        <v>14.99485836224605</v>
+        <v>14.969016943941593</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>15.777657990036165</v>
+        <v>15.724771196106463</v>
       </c>
       <c r="C4" t="n">
-        <v>22.991099870627572</v>
+        <v>22.878280410724123</v>
       </c>
       <c r="D4" t="n">
-        <v>45.11448641285402</v>
+        <v>44.611443451096996</v>
       </c>
       <c r="E4" t="n">
-        <v>31.45354750670217</v>
+        <v>31.160846752967945</v>
       </c>
       <c r="F4" t="n">
-        <v>21.59971065801669</v>
+        <v>21.565950139674555</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>98.89015874978806</v>
+        <v>98.21206094992274</v>
       </c>
       <c r="C5" t="n">
-        <v>144.17426823274513</v>
+        <v>145.08599046848497</v>
       </c>
       <c r="D5" t="n">
-        <v>66.11258976246523</v>
+        <v>66.28881157051043</v>
       </c>
       <c r="E5" t="n">
-        <v>40.19885324333643</v>
+        <v>40.03890310878499</v>
       </c>
       <c r="F5" t="n">
-        <v>71.46238405535571</v>
+        <v>71.2206369946636</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90648594412653</v>
+        <v>64.95334149931585</v>
       </c>
       <c r="C6" t="n">
-        <v>153.5923131908971</v>
+        <v>155.03647491223097</v>
       </c>
       <c r="D6" t="n">
-        <v>97.087536155692</v>
+        <v>97.7172285751854</v>
       </c>
       <c r="E6" t="n">
-        <v>113.35380948484719</v>
+        <v>112.76851186129974</v>
       </c>
       <c r="F6" t="n">
-        <v>114.55029335816464</v>
+        <v>114.71660410392971</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>129.86546704918203</v>
+        <v>129.45459592633054</v>
       </c>
       <c r="C7" t="n">
-        <v>38.75852367074772</v>
+        <v>39.000853436284544</v>
       </c>
       <c r="D7" t="n">
-        <v>21.758531299156594</v>
+        <v>22.04388813465009</v>
       </c>
       <c r="E7" t="n">
-        <v>11.705285845730096</v>
+        <v>11.718989402550385</v>
       </c>
       <c r="F7" t="n">
-        <v>19.189145738801013</v>
+        <v>19.324829606391432</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>25.709935673392565</v>
+        <v>25.76628260602799</v>
       </c>
       <c r="C2" t="n">
-        <v>43.42665525863066</v>
+        <v>43.436185552459655</v>
       </c>
       <c r="D2" t="n">
-        <v>33.10531304391427</v>
+        <v>33.13161648377678</v>
       </c>
       <c r="E2" t="n">
-        <v>42.35012882559955</v>
+        <v>42.4017319360135</v>
       </c>
       <c r="F2" t="n">
-        <v>36.67694213810964</v>
+        <v>36.69711379300097</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>10.892643941472102</v>
+        <v>10.826752801566464</v>
       </c>
       <c r="C3" t="n">
-        <v>18.257089733465765</v>
+        <v>18.154983076599645</v>
       </c>
       <c r="D3" t="n">
-        <v>13.170671723187228</v>
+        <v>13.117471289749375</v>
       </c>
       <c r="E3" t="n">
-        <v>13.809595368847727</v>
+        <v>13.868256260358185</v>
       </c>
       <c r="F3" t="n">
-        <v>13.847776484002143</v>
+        <v>13.820720180098029</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>13.330590874207862</v>
+        <v>13.377067949152837</v>
       </c>
       <c r="C4" t="n">
-        <v>19.22408030314087</v>
+        <v>18.971510615306233</v>
       </c>
       <c r="D4" t="n">
-        <v>36.82674874565589</v>
+        <v>36.74567878931382</v>
       </c>
       <c r="E4" t="n">
-        <v>25.44655899540611</v>
+        <v>25.415479459307747</v>
       </c>
       <c r="F4" t="n">
-        <v>18.541492072420155</v>
+        <v>18.556388231310656</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>83.02685227071814</v>
+        <v>82.68497931828918</v>
       </c>
       <c r="C5" t="n">
-        <v>126.20893371806831</v>
+        <v>125.92408911487254</v>
       </c>
       <c r="D5" t="n">
-        <v>55.17331589839441</v>
+        <v>55.36731348536185</v>
       </c>
       <c r="E5" t="n">
-        <v>34.76425896190757</v>
+        <v>34.83687979249456</v>
       </c>
       <c r="F5" t="n">
-        <v>63.49052356200926</v>
+        <v>62.87367217408012</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>56.59282930624965</v>
+        <v>56.16966347347308</v>
       </c>
       <c r="C6" t="n">
-        <v>139.9562090603773</v>
+        <v>139.55736053364095</v>
       </c>
       <c r="D6" t="n">
-        <v>84.01302684576763</v>
+        <v>83.64724564043821</v>
       </c>
       <c r="E6" t="n">
-        <v>102.21658554840252</v>
+        <v>102.95688728545731</v>
       </c>
       <c r="F6" t="n">
-        <v>105.10894612225107</v>
+        <v>104.99767060416099</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>101.65729940170395</v>
+        <v>102.73731329767088</v>
       </c>
       <c r="C7" t="n">
-        <v>33.46542095668864</v>
+        <v>33.33918479890467</v>
       </c>
       <c r="D7" t="n">
-        <v>18.30171569865224</v>
+        <v>18.23784077763773</v>
       </c>
       <c r="E7" t="n">
-        <v>10.250583513888676</v>
+        <v>10.23786295290008</v>
       </c>
       <c r="F7" t="n">
-        <v>16.91776456241914</v>
+        <v>16.942836914282125</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>26.667733258457954</v>
+        <v>26.676257848231277</v>
       </c>
       <c r="C2" t="n">
-        <v>44.793687443866126</v>
+        <v>44.791012337355475</v>
       </c>
       <c r="D2" t="n">
-        <v>34.42001502367706</v>
+        <v>34.41121883716436</v>
       </c>
       <c r="E2" t="n">
-        <v>43.475138154835676</v>
+        <v>43.452729445079726</v>
       </c>
       <c r="F2" t="n">
-        <v>37.278138307073014</v>
+        <v>37.24292258175648</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>13.264975642870727</v>
+        <v>13.099440626927073</v>
       </c>
       <c r="C3" t="n">
-        <v>21.934748108297782</v>
+        <v>22.016400515194125</v>
       </c>
       <c r="D3" t="n">
-        <v>16.258462434930756</v>
+        <v>16.21977271522888</v>
       </c>
       <c r="E3" t="n">
-        <v>16.670557781337966</v>
+        <v>16.709659252422668</v>
       </c>
       <c r="F3" t="n">
-        <v>16.219172112449225</v>
+        <v>16.168087848234407</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>18.53560348660095</v>
+        <v>18.623478757543992</v>
       </c>
       <c r="C4" t="n">
-        <v>27.81820433600389</v>
+        <v>27.24340296113507</v>
       </c>
       <c r="D4" t="n">
-        <v>54.90881413332698</v>
+        <v>54.478459034106535</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93596310987205</v>
+        <v>39.046507545587616</v>
       </c>
       <c r="F4" t="n">
-        <v>25.090084210510856</v>
+        <v>24.863672134453743</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>116.83332323799779</v>
+        <v>115.89526273505956</v>
       </c>
       <c r="C5" t="n">
-        <v>166.06156454041826</v>
+        <v>166.21187842975337</v>
       </c>
       <c r="D5" t="n">
-        <v>78.53694431664091</v>
+        <v>79.55000104943484</v>
       </c>
       <c r="E5" t="n">
-        <v>46.32900349275805</v>
+        <v>46.20857579848022</v>
       </c>
       <c r="F5" t="n">
-        <v>80.84270757670386</v>
+        <v>80.93058648539562</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>74.14256610026762</v>
+        <v>73.98397550733814</v>
       </c>
       <c r="C6" t="n">
-        <v>169.29337764531357</v>
+        <v>170.7738639608777</v>
       </c>
       <c r="D6" t="n">
-        <v>112.79019977011555</v>
+        <v>112.71288391904096</v>
       </c>
       <c r="E6" t="n">
-        <v>123.9073377876501</v>
+        <v>125.13836024649409</v>
       </c>
       <c r="F6" t="n">
-        <v>124.18731413926388</v>
+        <v>125.01420327846127</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>164.39251141532526</v>
+        <v>166.3117564882687</v>
       </c>
       <c r="C7" t="n">
-        <v>44.97194462690914</v>
+        <v>45.391583801194436</v>
       </c>
       <c r="D7" t="n">
-        <v>26.020973295185705</v>
+        <v>26.198514495852507</v>
       </c>
       <c r="E7" t="n">
-        <v>13.503492352353987</v>
+        <v>13.334833665979955</v>
       </c>
       <c r="F7" t="n">
-        <v>21.591270832698203</v>
+        <v>21.554148245906003</v>
       </c>
     </row>
   </sheetData>
